--- a/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank.Scheuer\Documents\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A74B16-5F50-4BB5-8BD8-89A5FE106AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BBC431-B1C6-4DB6-8C48-9E5A92960AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Stanleys Abenteuer Testergebnisse</t>
   </si>
@@ -66,7 +66,10 @@
     <t>Anmerkung</t>
   </si>
   <si>
-    <t>Levelrhythmus 1,2,4,3; Timer in Level 2 pro Seite um 10 erhöhen; Timer in Level 3 (Gegner) pro Seite 20 Sekunden</t>
+    <t>Niran Hasilik</t>
+  </si>
+  <si>
+    <t>Super, Animationen zu wenig</t>
   </si>
 </sst>
 </file>
@@ -134,15 +137,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +431,7 @@
   <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,43 +443,43 @@
     <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="100.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -502,13 +505,28 @@
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">

--- a/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank.Scheuer\Documents\GitHub\HangedLarryStan\Assets\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BBC431-B1C6-4DB6-8C48-9E5A92960AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE530654-51A7-4349-9DF4-D808C6505A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Stanleys Abenteuer Testergebnisse</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Prüfling</t>
   </si>
   <si>
-    <t>Präsentation</t>
-  </si>
-  <si>
-    <t>Game Design</t>
-  </si>
-  <si>
     <t>Game Programmierung</t>
   </si>
   <si>
@@ -48,15 +42,9 @@
     <t>Andre Lehmann</t>
   </si>
   <si>
-    <t>Super, nur Tutorial ist schlecht erkennbar</t>
-  </si>
-  <si>
     <t>Super</t>
   </si>
   <si>
-    <t>Grafik und Sound Super, Animationen zu wenig</t>
-  </si>
-  <si>
     <t>Alter</t>
   </si>
   <si>
@@ -70,6 +58,142 @@
   </si>
   <si>
     <t>Super, Animationen zu wenig</t>
+  </si>
+  <si>
+    <t>Super; Wurm unscheinbar, aber akzeptabel</t>
+  </si>
+  <si>
+    <t>Texthintergrund muss besser</t>
+  </si>
+  <si>
+    <t>Was wird gemacht</t>
+  </si>
+  <si>
+    <t>Weitere Funktion wäre schiessen interessant</t>
+  </si>
+  <si>
+    <t>Für Folienseite Ausblicke: Weitere Lernlevel</t>
+  </si>
+  <si>
+    <t>Tutorial: Lücken sind Zielwort; Level 2.1: 20 Sek. Mehr</t>
+  </si>
+  <si>
+    <t>Kayra Kaan Erdil</t>
+  </si>
+  <si>
+    <t>Kerstin Knura</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super, nur Tutorial vielleicht mit blinkenden Pfeilen; </t>
+  </si>
+  <si>
+    <t>Grafik ist sehr unterschiedlich und der Wurm unscheinbar, aber ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super, nur Tutorial ist schlecht erkennbar; </t>
+  </si>
+  <si>
+    <t>Super; Wurm unscheinbar, aber ok</t>
+  </si>
+  <si>
+    <t>Super; Hätten mehr einfache Lernlevel sein können</t>
+  </si>
+  <si>
+    <t>Game Design (Präsentation)</t>
+  </si>
+  <si>
+    <t>Game Sound &amp; Video</t>
+  </si>
+  <si>
+    <t>Level 1-3</t>
+  </si>
+  <si>
+    <t>Testung</t>
+  </si>
+  <si>
+    <t>Level 1-4</t>
+  </si>
+  <si>
+    <t>Wird besprochen</t>
+  </si>
+  <si>
+    <t>Durch Sprechblasen erledigt</t>
+  </si>
+  <si>
+    <t>Game Art: Küken vielleicht besser durch was anderes ersetzen wen Käfer nicht geht dann ne Mauer; Schlösser passen noch immer nicht richtig; Benutzeroberfläche vielleicht mehr wie einen Buch Umschlag machen (brauner Rand oben und unten)
+Tutorial: Nur einmal aufzurufen</t>
+  </si>
+  <si>
+    <t>Spassfaktor</t>
+  </si>
+  <si>
+    <t>Ausbaufähig, aber Spassig</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>"Geiles Spiel"</t>
+  </si>
+  <si>
+    <t>"Ganz in Ordnung"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samir Agrebi </t>
+  </si>
+  <si>
+    <t>30?</t>
+  </si>
+  <si>
+    <t>Beides in Arbeit</t>
+  </si>
+  <si>
+    <t>Folie Ausblicke: Funktion schiessen</t>
+  </si>
+  <si>
+    <t>Beides in Arbeit; Folie Ausblicke: Animation mit laufenden Vogel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elina Schwarz </t>
+  </si>
+  <si>
+    <t>Super, Level 4 anpassen (Pfeile)</t>
+  </si>
+  <si>
+    <t>Super, Level 4 anpassen (Restpunkt prüfen)</t>
+  </si>
+  <si>
+    <t>Wird besprochen und in Arbeit</t>
+  </si>
+  <si>
+    <t>Tutorial: Gerade ausgehen in Level 2</t>
+  </si>
+  <si>
+    <t>Super; Farbe im Intro anpassen</t>
+  </si>
+  <si>
+    <t>Tutorial: E highlighten, man kann auch gerade ausgehen in Level 2 und Tutorial bei jedem Level über Buch sichtbarer, entweder in Mitte oder weiß; Benutzeroberfläche vielleicht mehr wie einen Buch Umschlag machen (brauner Rand oben und unten)</t>
+  </si>
+  <si>
+    <t>Rey</t>
+  </si>
+  <si>
+    <t>"Schon ein geiles Spiel"</t>
+  </si>
+  <si>
+    <t>Geil, macht süchtig</t>
+  </si>
+  <si>
+    <t>"Das beste was man draus machen konnte"</t>
+  </si>
+  <si>
+    <t>Tutorial: Q+E zum überspringen des Level Intro überall</t>
+  </si>
+  <si>
+    <t>Level 1-2</t>
   </si>
 </sst>
 </file>
@@ -125,27 +249,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,150 +585,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="216.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16">
+        <v>45676</v>
+      </c>
+      <c r="D6" s="2">
         <v>58</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16">
+        <v>45677</v>
+      </c>
+      <c r="D7" s="2">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="16">
+        <v>45678</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="18">
+        <v>45678</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="16">
+        <v>45678</v>
+      </c>
+      <c r="D11" s="2">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="16">
+        <v>45678</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="16">
+        <v>45678</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+  <mergeCells count="13">
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE530654-51A7-4349-9DF4-D808C6505A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B4C2A0-A801-4698-B848-EA19AAD22F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -266,43 +266,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,7 +588,7 @@
   <dimension ref="A2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,25 +601,25 @@
     <col min="6" max="6" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="216.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -646,10 +646,10 @@
       <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -666,7 +666,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="10">
         <v>45676</v>
       </c>
       <c r="D6" s="2">
@@ -684,10 +684,10 @@
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -704,14 +704,14 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <v>45677</v>
       </c>
       <c r="D7" s="2">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -722,10 +722,10 @@
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -742,7 +742,7 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="10">
         <v>45678</v>
       </c>
       <c r="D8" s="2">
@@ -760,10 +760,10 @@
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -774,56 +774,56 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>45678</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -832,7 +832,7 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>45678</v>
       </c>
       <c r="D11" s="2">
@@ -850,10 +850,10 @@
       <c r="H11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -870,7 +870,7 @@
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="10">
         <v>45678</v>
       </c>
       <c r="D12" s="2">
@@ -888,10 +888,10 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -908,7 +908,7 @@
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="10">
         <v>45678</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -926,10 +926,10 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -956,11 +956,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -969,6 +964,11 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B4C2A0-A801-4698-B848-EA19AAD22F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55990AF7-351B-4AFB-A3D9-4BDB7D53F20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>Stanleys Abenteuer Testergebnisse</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t>Level 1-4</t>
-  </si>
-  <si>
-    <t>Wird besprochen</t>
-  </si>
-  <si>
-    <t>Durch Sprechblasen erledigt</t>
   </si>
   <si>
     <t>Game Art: Küken vielleicht besser durch was anderes ersetzen wen Käfer nicht geht dann ne Mauer; Schlösser passen noch immer nicht richtig; Benutzeroberfläche vielleicht mehr wie einen Buch Umschlag machen (brauner Rand oben und unten)
@@ -148,15 +142,9 @@
     <t>30?</t>
   </si>
   <si>
-    <t>Beides in Arbeit</t>
-  </si>
-  <si>
     <t>Folie Ausblicke: Funktion schiessen</t>
   </si>
   <si>
-    <t>Beides in Arbeit; Folie Ausblicke: Animation mit laufenden Vogel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elina Schwarz </t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>Super, Level 4 anpassen (Restpunkt prüfen)</t>
   </si>
   <si>
-    <t>Wird besprochen und in Arbeit</t>
-  </si>
-  <si>
     <t>Tutorial: Gerade ausgehen in Level 2</t>
   </si>
   <si>
@@ -194,6 +179,12 @@
   </si>
   <si>
     <t>Level 1-2</t>
+  </si>
+  <si>
+    <t>Folie Ausblicke: Animation mit laufenden Vogel</t>
+  </si>
+  <si>
+    <t>Wurde umgesetzt</t>
   </si>
 </sst>
 </file>
@@ -281,9 +272,18 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -294,15 +294,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,15 +578,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -609,15 +600,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
@@ -629,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
@@ -650,7 +641,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>8</v>
@@ -688,13 +679,13 @@
         <v>27</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -723,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -764,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>16</v>
@@ -774,63 +765,63 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="18">
         <v>45678</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="J9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="L9" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="10">
         <v>45678</v>
@@ -839,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -854,13 +845,13 @@
         <v>27</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -868,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10">
         <v>45678</v>
@@ -877,10 +868,10 @@
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>21</v>
@@ -892,13 +883,13 @@
         <v>29</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -906,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="10">
         <v>45678</v>
@@ -915,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -927,16 +918,16 @@
         <v>10</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -956,6 +947,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -964,11 +960,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55990AF7-351B-4AFB-A3D9-4BDB7D53F20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B412ED91-E7BC-4A5B-93DE-5522181F6924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Stanleys Abenteuer Testergebnisse</t>
   </si>
@@ -87,13 +87,7 @@
     <t>??</t>
   </si>
   <si>
-    <t xml:space="preserve">Super, nur Tutorial vielleicht mit blinkenden Pfeilen; </t>
-  </si>
-  <si>
     <t>Grafik ist sehr unterschiedlich und der Wurm unscheinbar, aber ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super, nur Tutorial ist schlecht erkennbar; </t>
   </si>
   <si>
     <t>Super; Wurm unscheinbar, aber ok</t>
@@ -151,9 +145,6 @@
     <t>Super, Level 4 anpassen (Pfeile)</t>
   </si>
   <si>
-    <t>Super, Level 4 anpassen (Restpunkt prüfen)</t>
-  </si>
-  <si>
     <t>Tutorial: Gerade ausgehen in Level 2</t>
   </si>
   <si>
@@ -184,7 +175,22 @@
     <t>Folie Ausblicke: Animation mit laufenden Vogel</t>
   </si>
   <si>
-    <t>Wurde umgesetzt</t>
+    <t>Super, Level 4 anpassen (Resetpunkt prüfen)</t>
+  </si>
+  <si>
+    <t>Super, nur Tutorial ist schlecht erkennbar</t>
+  </si>
+  <si>
+    <t>Super, nur Tutorial vielleicht mit blinkenden Pfeilen</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
+    <t>Weitere Animationen</t>
+  </si>
+  <si>
+    <t>In Arbeit</t>
   </si>
 </sst>
 </file>
@@ -272,6 +278,21 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,21 +300,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,15 +606,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
@@ -620,13 +626,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>2</v>
@@ -635,13 +641,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>8</v>
@@ -664,28 +670,28 @@
         <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -714,16 +720,16 @@
         <v>10</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -740,22 +746,22 @@
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>16</v>
@@ -765,63 +771,63 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>45678</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>52</v>
+      <c r="I9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10">
         <v>45678</v>
@@ -830,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -842,16 +848,16 @@
         <v>10</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -859,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="10">
         <v>45678</v>
@@ -868,25 +874,25 @@
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>52</v>
@@ -897,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10">
         <v>45678</v>
@@ -906,7 +912,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -918,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>52</v>
@@ -947,11 +953,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -960,6 +961,11 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B412ED91-E7BC-4A5B-93DE-5522181F6924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB9685C-2DEE-4CA1-8F18-A32DD2BD184C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <t>Weitere Animationen</t>
   </si>
   <si>
-    <t>In Arbeit</t>
+    <t>Statt Kücken eine Spinne (die Fressen Würmer) und Buch mit s</t>
   </si>
 </sst>
 </file>
@@ -278,9 +278,18 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -291,15 +300,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,15 +606,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
@@ -771,56 +771,56 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="18">
         <v>45678</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -953,6 +953,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -961,11 +966,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank.Scheuer\Documents\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BBC431-B1C6-4DB6-8C48-9E5A92960AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515B8342-3864-4341-8617-0F5B28B64E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank.Scheuer\Documents\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515B8342-3864-4341-8617-0F5B28B64E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BBC431-B1C6-4DB6-8C48-9E5A92960AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Testergebnisse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank.Scheuer\Documents\GitHub\HangedLarryStan\Assets\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BBC431-B1C6-4DB6-8C48-9E5A92960AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E3CC6C-014B-47AB-A8B7-A3B97B8D1A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>Stanleys Abenteuer Testergebnisse</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Prüfling</t>
   </si>
   <si>
-    <t>Präsentation</t>
-  </si>
-  <si>
-    <t>Game Design</t>
-  </si>
-  <si>
     <t>Game Programmierung</t>
   </si>
   <si>
@@ -48,28 +42,209 @@
     <t>Andre Lehmann</t>
   </si>
   <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>Niran Hasilik</t>
+  </si>
+  <si>
+    <t>Super, Animationen zu wenig</t>
+  </si>
+  <si>
+    <t>Super; Wurm unscheinbar, aber akzeptabel</t>
+  </si>
+  <si>
+    <t>Texthintergrund muss besser</t>
+  </si>
+  <si>
+    <t>Was wird gemacht</t>
+  </si>
+  <si>
+    <t>Weitere Funktion wäre schiessen interessant</t>
+  </si>
+  <si>
+    <t>Für Folienseite Ausblicke: Weitere Lernlevel</t>
+  </si>
+  <si>
+    <t>Tutorial: Lücken sind Zielwort; Level 2.1: 20 Sek. Mehr</t>
+  </si>
+  <si>
+    <t>Kayra Kaan Erdil</t>
+  </si>
+  <si>
+    <t>Kerstin Knura</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Grafik ist sehr unterschiedlich und der Wurm unscheinbar, aber ok</t>
+  </si>
+  <si>
+    <t>Super; Wurm unscheinbar, aber ok</t>
+  </si>
+  <si>
+    <t>Super; Hätten mehr einfache Lernlevel sein können</t>
+  </si>
+  <si>
+    <t>Game Design (Präsentation)</t>
+  </si>
+  <si>
+    <t>Game Sound &amp; Video</t>
+  </si>
+  <si>
+    <t>Level 1-3</t>
+  </si>
+  <si>
+    <t>Testung</t>
+  </si>
+  <si>
+    <t>Level 1-4</t>
+  </si>
+  <si>
+    <t>Game Art: Küken vielleicht besser durch was anderes ersetzen wen Käfer nicht geht dann ne Mauer; Schlösser passen noch immer nicht richtig; Benutzeroberfläche vielleicht mehr wie einen Buch Umschlag machen (brauner Rand oben und unten)
+Tutorial: Nur einmal aufzurufen</t>
+  </si>
+  <si>
+    <t>Spassfaktor</t>
+  </si>
+  <si>
+    <t>Ausbaufähig, aber Spassig</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>"Geiles Spiel"</t>
+  </si>
+  <si>
+    <t>"Ganz in Ordnung"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samir Agrebi </t>
+  </si>
+  <si>
+    <t>30?</t>
+  </si>
+  <si>
+    <t>Folie Ausblicke: Funktion schiessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elina Schwarz </t>
+  </si>
+  <si>
+    <t>Super, Level 4 anpassen (Pfeile)</t>
+  </si>
+  <si>
+    <t>Tutorial: Gerade ausgehen in Level 2</t>
+  </si>
+  <si>
+    <t>Super; Farbe im Intro anpassen</t>
+  </si>
+  <si>
+    <t>Tutorial: E highlighten, man kann auch gerade ausgehen in Level 2 und Tutorial bei jedem Level über Buch sichtbarer, entweder in Mitte oder weiß; Benutzeroberfläche vielleicht mehr wie einen Buch Umschlag machen (brauner Rand oben und unten)</t>
+  </si>
+  <si>
+    <t>Rey</t>
+  </si>
+  <si>
+    <t>"Schon ein geiles Spiel"</t>
+  </si>
+  <si>
+    <t>Geil, macht süchtig</t>
+  </si>
+  <si>
+    <t>"Das beste was man draus machen konnte"</t>
+  </si>
+  <si>
+    <t>Tutorial: Q+E zum überspringen des Level Intro überall</t>
+  </si>
+  <si>
+    <t>Level 1-2</t>
+  </si>
+  <si>
+    <t>Folie Ausblicke: Animation mit laufenden Vogel</t>
+  </si>
+  <si>
+    <t>Super, Level 4 anpassen (Resetpunkt prüfen)</t>
+  </si>
+  <si>
     <t>Super, nur Tutorial ist schlecht erkennbar</t>
   </si>
   <si>
-    <t>Super</t>
-  </si>
-  <si>
-    <t>Grafik und Sound Super, Animationen zu wenig</t>
-  </si>
-  <si>
-    <t>Alter</t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>Anmerkung</t>
-  </si>
-  <si>
-    <t>Niran Hasilik</t>
-  </si>
-  <si>
-    <t>Super, Animationen zu wenig</t>
+    <t>Super, nur Tutorial vielleicht mit blinkenden Pfeilen</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
+    <t>Weitere Animationen</t>
+  </si>
+  <si>
+    <t>Statt Kücken eine Spinne (die Fressen Würmer) und Buch mit s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas Alexander Schweminski </t>
+  </si>
+  <si>
+    <t>Super; bei Tutorial besser abbremsen</t>
+  </si>
+  <si>
+    <t>Super, Weichenrichtung</t>
+  </si>
+  <si>
+    <t>Folie Ausblicke: Beschleunigen</t>
+  </si>
+  <si>
+    <t>Super, Musikloop prüfen</t>
+  </si>
+  <si>
+    <t>Level 1-4; gewonnen</t>
+  </si>
+  <si>
+    <t>Sehr spassig</t>
+  </si>
+  <si>
+    <t>Rechtschreibung Buch 3 prüfen und Level 2.2 +10 Sek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katharina Röttgen </t>
+  </si>
+  <si>
+    <t>Super; Buchstaben suche tolle Idee</t>
+  </si>
+  <si>
+    <t>Super; Game Over Ton prüfen</t>
+  </si>
+  <si>
+    <t>Jaaaaaa, geiles Spiel</t>
+  </si>
+  <si>
+    <t>Mehr Zeit geben, Loch größer; Pfeile anpassen</t>
+  </si>
+  <si>
+    <t>Irina Hasanow</t>
+  </si>
+  <si>
+    <t>38?</t>
+  </si>
+  <si>
+    <t>Geht so</t>
+  </si>
+  <si>
+    <t>Pfeile in Szene 4.2 prüfen</t>
+  </si>
+  <si>
+    <t>Wird geprüft</t>
   </si>
 </sst>
 </file>
@@ -125,28 +300,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,150 +639,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="216.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18">
+        <v>45676</v>
+      </c>
+      <c r="D6" s="2">
         <v>58</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18">
+        <v>45677</v>
+      </c>
+      <c r="D7" s="2">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="18">
+        <v>45678</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19">
+        <v>45678</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="18">
+        <v>45678</v>
+      </c>
+      <c r="D11" s="2">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="18">
+        <v>45678</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="18">
+        <v>45678</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="18">
+        <v>45679</v>
+      </c>
+      <c r="D14" s="2">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="18">
+        <v>45679</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>10</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="18">
+        <v>45679</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+  <mergeCells count="13">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
